--- a/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
@@ -856,6 +856,9 @@
       <c r="C51" t="str">
         <v>643_巧克力秋英_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -917,7 +920,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0105202055555555530510554030202055676105534555107356101515151055510100</v>
+        <v>01052020555555555305105540302020556761055345551073561015151510555101015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,9 +860,117 @@
         <v>15</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>7</v>
+      </c>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>8</v>
+      </c>
+      <c r="C57" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>717_银莲玫红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>626_多丁黄言_undefined_undefined_undefinedundefined</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>534_大珊瑚果_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L64"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -920,7 +1028,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01052020555555555305105540302020556761055345551073561015151510555101015</v>
+        <v>010520205555555553051055403020205567610553455510735610151515105551010155555101010101051050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
@@ -967,6 +967,9 @@
       <c r="C64" t="str">
         <v>534_大珊瑚果_undefined_undefined_1bunch</v>
       </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1028,7 +1031,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010520205555555553051055403020205567610553455510735610151515105551010155555101010101051050</v>
+        <v>010520205555555553051055403020205567610553455510735610151515105551010155555101010101051055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-5.xlsx
@@ -1033,6 +1033,9 @@
       <c r="G2" t="str">
         <v>010520205555555553051055403020205567610553455510735610151515105551010155555101010101051055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
